--- a/jim_info.xlsx
+++ b/jim_info.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7110"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Schedule" sheetId="1" r:id="rId1"/>
-    <sheet name="Payment Methods" sheetId="2" r:id="rId2"/>
-    <sheet name="Customers" sheetId="3" r:id="rId3"/>
+    <sheet name="Schedule" r:id="rId1" sheetId="1"/>
+    <sheet name="Payment Methods" r:id="rId2" sheetId="2"/>
+    <sheet name="Customers" r:id="rId3" sheetId="3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Burns</t>
   </si>
@@ -66,6 +67,9 @@
     <t>Howard</t>
   </si>
   <si>
+    <t>Fred</t>
+  </si>
+  <si>
     <t>Mon</t>
   </si>
   <si>
@@ -82,6 +86,12 @@
   </si>
   <si>
     <t>Last</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Johnson</t>
   </si>
   <si>
     <t xml:space="preserve">Rate </t>
@@ -150,8 +160,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt formatCode="m/d/yyyy" numFmtId="165"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +183,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -276,33 +287,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="20" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="5" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="8" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -592,591 +598,616 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="14" width="9.140625" customWidth="1"/>
+    <col max="1" collapsed="0" customWidth="true" width="9.140625" min="1"/>
+    <col max="3" collapsed="0" customWidth="true" width="11.42578125" min="3"/>
+    <col max="2" collapsed="0" customWidth="true" width="9.140625" min="2"/>
+    <col max="5" collapsed="0" customWidth="true" width="9.140625" min="5"/>
+    <col max="4" collapsed="0" customWidth="true" width="9.140625" min="4"/>
+    <col max="7" collapsed="0" customWidth="true" width="9.140625" min="7"/>
+    <col max="6" collapsed="0" customWidth="true" width="9.140625" min="6"/>
+    <col max="9" collapsed="0" customWidth="true" width="9.140625" min="9"/>
+    <col max="8" collapsed="0" customWidth="true" width="9.140625" min="8"/>
+    <col max="11" collapsed="0" customWidth="true" width="9.140625" min="11"/>
+    <col max="10" collapsed="0" customWidth="true" width="9.140625" min="10"/>
+    <col max="13" collapsed="0" customWidth="true" width="9.140625" min="13"/>
+    <col max="12" collapsed="0" customWidth="true" width="9.140625" min="12"/>
+    <col max="14" collapsed="0" customWidth="true" width="9.140625" min="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:14">
+      <c s="9" r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c s="11" r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c s="9" r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c s="11" r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c s="9" r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c s="11" r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c s="9" r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c s="11" r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c s="9" r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c s="11" r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c s="9" r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c s="11" r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c s="9" r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c s="11" r="N1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c s="1" r="A2" t="n">
         <v>0.25</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1">
+      <c s="4" r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" r="C2" t="n">
         <v>0.25</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1">
+      <c s="4" r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" r="E2" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="1">
+      <c s="4" r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" r="G2" t="n">
         <v>0.25</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="1">
+      <c s="4" r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" r="I2" t="n">
         <v>0.25</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="1">
+      <c s="4" r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" r="K2" t="n">
         <v>0.25</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c s="4" r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c s="1" r="M2" t="s"/>
+      <c s="4" r="N2" t="s"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c s="1" r="A3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c s="4" r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c s="1" r="C3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c s="4" r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c s="1" r="E3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c s="4" r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c s="1" r="G3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c s="4" r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c s="1" r="I3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c s="4" r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c s="1" r="K3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c s="4" r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" r="M3" t="s"/>
+      <c s="4" r="N3" t="s"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c s="1" r="A4" t="n">
         <v>0.375</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c s="4" r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c s="1" r="C4" t="n">
         <v>0.375</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c s="4" r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c s="1" r="E4" t="n">
         <v>0.375</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c s="4" r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1">
+      <c s="1" r="G4" t="n">
         <v>0.375</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c s="4" r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1">
+      <c s="1" r="I4" t="n">
         <v>0.375</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c s="4" r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1">
+      <c s="1" r="K4" t="n">
         <v>0.375</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c s="4" r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c s="1" r="M4" t="s"/>
+      <c s="4" r="N4" t="s"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c s="1" r="A5" t="n">
         <v>0.5</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1">
+      <c s="4" r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c s="1" r="C5" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c s="4" r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c s="1" r="E5" t="n">
         <v>0.5</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="1">
+      <c s="4" r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c s="1" r="G5" t="n">
         <v>0.5</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="1">
+      <c s="4" r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c s="1" r="I5" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c s="4" r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" r="K5" t="n">
         <v>0.5</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c s="4" r="L5" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1">
+      <c s="1" r="M5" t="s"/>
+      <c s="4" r="N5" t="s"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c s="1" r="A6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c s="4" r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" r="C6" t="n">
         <v>0.8125</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="1">
+      <c s="4" r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" r="E6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c s="4" r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" r="G6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c s="4" r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" r="I6" t="n">
         <v>0.8125</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c s="4" r="J6" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c s="1" r="K6" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c s="4" r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" r="M6" t="s"/>
+      <c s="4" r="N6" t="s"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c s="1" r="A7" t="n">
         <v>0.8125</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c s="4" r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1">
+      <c s="12" r="C7" t="s"/>
+      <c s="4" r="D7" t="s"/>
+      <c s="1" r="E7" t="n">
         <v>0.8125</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1">
+      <c s="4" r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" r="G7" t="n">
         <v>0.8125</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c s="4" r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="1">
+      <c s="12" r="I7" t="s"/>
+      <c s="4" r="J7" t="s"/>
+      <c s="1" r="K7" t="n">
         <v>0.8125</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1">
+      <c s="4" r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c s="1" r="M7" t="s"/>
+      <c s="4" r="N7" t="s"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c s="12" r="A8" t="s"/>
+      <c s="4" r="B8" t="s"/>
+      <c s="12" r="C8" t="s"/>
+      <c s="4" r="D8" t="s"/>
+      <c s="1" r="E8" t="n">
         <v>0.9375</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c s="4" r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="7"/>
+      <c s="12" r="G8" t="s"/>
+      <c s="4" r="H8" t="s"/>
+      <c s="12" r="I8" t="s"/>
+      <c s="4" r="J8" t="s"/>
+      <c s="12" r="K8" t="s"/>
+      <c s="4" r="L8" t="s"/>
+      <c s="12" r="M8" t="s"/>
+      <c s="4" r="N8" t="s"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c s="12" r="A9" t="s"/>
+      <c s="4" r="B9" t="s"/>
+      <c s="12" r="C9" t="s"/>
+      <c s="4" r="D9" t="s"/>
+      <c s="12" r="E9" t="s"/>
+      <c s="4" r="F9" t="s"/>
+      <c s="12" r="G9" t="s"/>
+      <c s="4" r="H9" t="s"/>
+      <c s="12" r="I9" t="s"/>
+      <c s="4" r="J9" t="s"/>
+      <c s="12" r="K9" t="s"/>
+      <c s="4" r="L9" t="s"/>
+      <c s="12" r="M9" t="s"/>
+      <c s="4" r="N9" t="s"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c s="12" r="A10" t="s"/>
+      <c s="4" r="B10" t="s"/>
+      <c s="12" r="C10" t="s"/>
+      <c s="4" r="D10" t="s"/>
+      <c s="12" r="E10" t="s"/>
+      <c s="4" r="F10" t="s"/>
+      <c s="12" r="G10" t="s"/>
+      <c s="4" r="H10" t="s"/>
+      <c s="12" r="I10" t="s"/>
+      <c s="4" r="J10" t="s"/>
+      <c s="12" r="K10" t="s"/>
+      <c s="4" r="L10" t="s"/>
+      <c s="12" r="M10" t="s"/>
+      <c s="4" r="N10" t="s"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c s="12" r="A11" t="s"/>
+      <c s="4" r="B11" t="s"/>
+      <c s="12" r="C11" t="s"/>
+      <c s="4" r="D11" t="s"/>
+      <c s="12" r="E11" t="s"/>
+      <c s="4" r="F11" t="s"/>
+      <c s="12" r="G11" t="s"/>
+      <c s="4" r="H11" t="s"/>
+      <c s="12" r="I11" t="s"/>
+      <c s="4" r="J11" t="s"/>
+      <c s="12" r="K11" t="s"/>
+      <c s="4" r="L11" t="s"/>
+      <c s="12" r="M11" t="s"/>
+      <c s="4" r="N11" t="s"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c s="12" r="A12" t="s"/>
+      <c s="4" r="B12" t="s"/>
+      <c s="12" r="C12" t="s"/>
+      <c s="4" r="D12" t="s"/>
+      <c s="12" r="E12" t="s"/>
+      <c s="4" r="F12" t="s"/>
+      <c s="12" r="G12" t="s"/>
+      <c s="4" r="H12" t="s"/>
+      <c s="12" r="I12" t="s"/>
+      <c s="4" r="J12" t="s"/>
+      <c s="12" r="K12" t="s"/>
+      <c s="4" r="L12" t="s"/>
+      <c s="12" r="M12" t="s"/>
+      <c s="4" r="N12" t="s"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c s="12" r="A13" t="s"/>
+      <c s="4" r="B13" t="s"/>
+      <c s="12" r="C13" t="s"/>
+      <c s="4" r="D13" t="s"/>
+      <c s="12" r="E13" t="s"/>
+      <c s="4" r="F13" t="s"/>
+      <c s="12" r="G13" t="s"/>
+      <c s="4" r="H13" t="s"/>
+      <c s="12" r="I13" t="s"/>
+      <c s="4" r="J13" t="s"/>
+      <c s="12" r="K13" t="s"/>
+      <c s="4" r="L13" t="s"/>
+      <c s="12" r="M13" t="s"/>
+      <c s="4" r="N13" t="s"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c s="2" r="A14" t="s"/>
+      <c s="7" r="B14" t="s"/>
+      <c s="2" r="C14" t="s"/>
+      <c s="7" r="D14" t="s"/>
+      <c s="2" r="E14" t="s"/>
+      <c s="7" r="F14" t="s"/>
+      <c s="2" r="G14" t="s"/>
+      <c s="7" r="H14" t="s"/>
+      <c s="2" r="I14" t="s"/>
+      <c s="7" r="J14" t="s"/>
+      <c s="2" r="K14" t="s"/>
+      <c s="7" r="L14" t="s"/>
+      <c s="2" r="M14" t="s"/>
+      <c s="7" r="N14" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col max="1" collapsed="0" customWidth="true" width="10.85546875" min="1"/>
+    <col max="3" collapsed="0" customWidth="true" width="9.140625" min="3"/>
+    <col max="2" collapsed="0" customWidth="true" width="9.140625" min="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3">
+      <c s="9" r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c s="3" r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c s="11" r="C1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="B2" t="n">
         <v>85</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3">
+        <v>42</v>
+      </c>
+      <c r="B3" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
+        <v>38</v>
+      </c>
+      <c r="B4" t="n">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col max="1" collapsed="0" customWidth="true" width="10.28515625" min="1"/>
+    <col max="3" collapsed="0" customWidth="true" width="7.28515625" min="3"/>
+    <col max="2" collapsed="0" customWidth="true" width="10.42578125" min="2"/>
+    <col max="5" collapsed="0" customWidth="true" width="20.28515625" min="5"/>
+    <col max="4" collapsed="0" customWidth="true" width="10.85546875" min="4"/>
+    <col max="8" collapsed="0" customWidth="true" width="9.140625" min="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:8">
+      <c s="6" r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c s="6" r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c s="6" r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c s="6" r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c s="6" r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="8">
+        <v>38</v>
+      </c>
+      <c s="10" r="E2" t="n">
         <v>41455</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
+      <c s="5" r="C3" t="s">
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8">
+      <c s="10" r="E3" t="n">
         <v>41435</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10">
+      <c s="10" r="E4" t="n">
         <v>41450</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="10">
+        <v>42</v>
+      </c>
+      <c s="10" r="E5" t="n">
         <v>41429</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c s="10" r="C6" t="s">
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="10">
+      <c s="10" r="E6" t="n">
         <v>41450</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1184,33 +1215,33 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="10">
+      <c s="10" r="E7" t="n">
         <v>41450</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="8">
+        <v>38</v>
+      </c>
+      <c s="10" r="E8" t="n">
         <v>41455</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1218,51 +1249,68 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c s="10" r="E9" t="n">
+        <v>41456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c s="10" r="E10" t="n">
+        <v>41456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c s="10" r="E11" t="n">
+        <v>41456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="8">
-        <v>41456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="8">
-        <v>41456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="8">
-        <v>41456</v>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c s="8" r="E12" t="n">
+        <v>41464.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/jim_info.xlsx
+++ b/jim_info.xlsx
@@ -17,125 +17,140 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>Burns</t>
   </si>
   <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Caveman</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Thurs</t>
+  </si>
+  <si>
+    <t>Rasor</t>
+  </si>
+  <si>
+    <t>NMI</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Sanders</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Sun</t>
+    <t>TRX 3-2-1</t>
+  </si>
+  <si>
+    <t>Mahurin</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Cave Basics</t>
+  </si>
+  <si>
+    <t>Beth</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t>Fri</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Thurs</t>
-  </si>
-  <si>
-    <t>Rasor</t>
-  </si>
-  <si>
-    <t>NMI</t>
-  </si>
-  <si>
-    <t>Cave man</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Jonathan</t>
+    <t>3-2-1</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate </t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Monthy</t>
   </si>
   <si>
     <t>Due</t>
   </si>
   <si>
-    <t>Mahurin</t>
-  </si>
-  <si>
-    <t>Howard</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Beth</t>
-  </si>
-  <si>
-    <t>type</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Hamvas</t>
+  </si>
+  <si>
+    <t>date joined</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Weaver</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Rasor III</t>
+  </si>
+  <si>
+    <t>Drop In</t>
   </si>
   <si>
     <t>Tue</t>
   </si>
   <si>
-    <t>Monthy</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate </t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Hamvas</t>
-  </si>
-  <si>
-    <t>date joined</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Weaver</t>
-  </si>
-  <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Rasor III</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>Drop In</t>
-  </si>
-  <si>
     <t>Tyler</t>
   </si>
   <si>
@@ -145,10 +160,10 @@
     <t>Daniel</t>
   </si>
   <si>
+    <t>Kettlebells</t>
+  </si>
+  <si>
     <t>Punch Card</t>
-  </si>
-  <si>
-    <t>Oly</t>
   </si>
   <si>
     <t>Rasor Jr</t>
@@ -602,7 +617,7 @@
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1" activeCell="A1"/>
@@ -610,295 +625,211 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="1" collapsed="0" customWidth="true" width="9.140625" min="1"/>
-    <col max="3" collapsed="0" customWidth="true" width="11.42578125" min="3"/>
-    <col max="2" collapsed="0" customWidth="true" width="9.140625" min="2"/>
-    <col max="5" collapsed="0" customWidth="true" width="9.140625" min="5"/>
-    <col max="4" collapsed="0" customWidth="true" width="9.140625" min="4"/>
-    <col max="7" collapsed="0" customWidth="true" width="9.140625" min="7"/>
-    <col max="6" collapsed="0" customWidth="true" width="9.140625" min="6"/>
-    <col max="9" collapsed="0" customWidth="true" width="9.140625" min="9"/>
+    <col bestFit="true" min="1" max="1" collapsed="0" width="5.5703125" customWidth="true"/>
+    <col bestFit="true" min="3" max="3" collapsed="0" width="5.5703125" customWidth="true"/>
+    <col bestFit="true" min="2" max="2" collapsed="0" width="10.7109375" customWidth="true"/>
+    <col bestFit="true" min="5" max="5" collapsed="0" width="5.5703125" customWidth="true"/>
+    <col bestFit="true" min="4" max="4" collapsed="0" width="10.7109375" customWidth="true"/>
+    <col bestFit="true" min="7" max="7" collapsed="0" width="5.85546875" customWidth="true"/>
+    <col max="6" collapsed="5" customWidth="true" width="9.140625" min="6"/>
+    <col bestFit="true" min="9" max="9" collapsed="0" width="5.5703125" customWidth="true"/>
     <col max="8" collapsed="0" customWidth="true" width="9.140625" min="8"/>
-    <col max="11" collapsed="0" customWidth="true" width="9.140625" min="11"/>
-    <col max="10" collapsed="0" customWidth="true" width="9.140625" min="10"/>
-    <col max="13" collapsed="0" customWidth="true" width="9.140625" min="13"/>
-    <col max="12" collapsed="0" customWidth="true" width="9.140625" min="12"/>
-    <col max="14" collapsed="0" customWidth="true" width="9.140625" min="14"/>
+    <col bestFit="true" min="11" max="11" collapsed="0" width="5.5703125" customWidth="true"/>
+    <col bestFit="true" min="10" max="10" collapsed="0" width="10.7109375" customWidth="true"/>
+    <col bestFit="true" min="13" max="13" collapsed="0" width="4.28515625" customWidth="true"/>
+    <col bestFit="true" min="12" max="12" collapsed="0" width="11.0" customWidth="true"/>
+    <col bestFit="true" min="14" max="14" collapsed="0" width="5.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c s="9" r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="11" r="B1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c s="9" r="C1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c s="11" r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c s="9" r="E1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="11" r="F1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c s="9" r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="11" r="H1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c s="9" r="I1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c s="11" r="J1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c s="9" r="K1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c s="11" r="L1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c s="9" r="M1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="11" r="N1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c s="1" r="A2" t="n">
-        <v>0.25</v>
+        <v>0.4166666666666667</v>
       </c>
       <c s="4" r="B2" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c s="1" r="C2" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c s="4" r="D2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c s="1" r="E2" t="n">
-        <v>0.25</v>
+        <v>0.4166666666666667</v>
       </c>
       <c s="4" r="F2" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c s="1" r="G2" t="n">
-        <v>0.25</v>
+        <v>0.7291666666666666</v>
       </c>
       <c s="4" r="H2" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c s="1" r="I2" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c s="4" r="J2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c s="1" r="K2" t="n">
-        <v>0.25</v>
+        <v>0.4166666666666667</v>
       </c>
       <c s="4" r="L2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c s="1" r="M2" t="s"/>
       <c s="4" r="N2" t="s"/>
     </row>
     <row r="3" spans="1:14">
       <c s="1" r="A3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.7291666666666666</v>
       </c>
       <c s="4" r="B3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c s="1" r="C3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.7291666666666666</v>
       </c>
       <c s="4" r="D3" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c s="1" r="E3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.7708333333333334</v>
       </c>
       <c s="4" r="F3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c s="1" r="G3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.7708333333333334</v>
       </c>
       <c s="4" r="H3" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c s="1" r="I3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c s="4" r="J3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c s="1" r="K3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
       <c s="4" r="L3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c s="1" r="M3" t="s"/>
       <c s="4" r="N3" t="s"/>
     </row>
     <row r="4" spans="1:14">
-      <c s="1" r="A4" t="n">
-        <v>0.375</v>
-      </c>
-      <c s="4" r="B4" t="s">
-        <v>10</v>
-      </c>
+      <c s="1" r="A4" t="s"/>
+      <c s="4" r="B4" t="s"/>
       <c s="1" r="C4" t="n">
-        <v>0.375</v>
+        <v>0.7708333333333334</v>
       </c>
       <c s="4" r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c s="1" r="E4" t="n">
-        <v>0.375</v>
-      </c>
-      <c s="4" r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c s="1" r="G4" t="n">
-        <v>0.375</v>
-      </c>
-      <c s="4" r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c s="1" r="I4" t="n">
-        <v>0.375</v>
-      </c>
-      <c s="4" r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c s="1" r="K4" t="n">
-        <v>0.375</v>
-      </c>
-      <c s="4" r="L4" t="s">
-        <v>43</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c s="1" r="E4" t="s"/>
+      <c s="4" r="F4" t="s"/>
+      <c s="1" r="G4" t="s"/>
+      <c s="4" r="H4" t="s"/>
+      <c s="1" r="I4" t="s"/>
+      <c s="4" r="J4" t="s"/>
+      <c s="1" r="K4" t="s"/>
+      <c s="4" r="L4" t="s"/>
       <c s="1" r="M4" t="s"/>
       <c s="4" r="N4" t="s"/>
     </row>
     <row r="5" spans="1:14">
-      <c s="1" r="A5" t="n">
-        <v>0.5</v>
-      </c>
-      <c s="4" r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c s="1" r="C5" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c s="4" r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c s="1" r="E5" t="n">
-        <v>0.5</v>
-      </c>
-      <c s="4" r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c s="1" r="G5" t="n">
-        <v>0.5</v>
-      </c>
-      <c s="4" r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c s="1" r="I5" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c s="4" r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c s="1" r="K5" t="n">
-        <v>0.5</v>
-      </c>
-      <c s="4" r="L5" t="s">
-        <v>10</v>
-      </c>
+      <c s="1" r="A5" t="s"/>
+      <c s="4" r="B5" t="s"/>
+      <c s="1" r="C5" t="s"/>
+      <c s="4" r="D5" t="s"/>
+      <c s="1" r="E5" t="s"/>
+      <c s="4" r="F5" t="s"/>
+      <c s="1" r="G5" t="s"/>
+      <c s="4" r="H5" t="s"/>
+      <c s="1" r="I5" t="s"/>
+      <c s="4" r="J5" t="s"/>
+      <c s="1" r="K5" t="s"/>
+      <c s="4" r="L5" t="s"/>
       <c s="1" r="M5" t="s"/>
       <c s="4" r="N5" t="s"/>
     </row>
     <row r="6" spans="1:14">
-      <c s="1" r="A6" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c s="4" r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c s="1" r="C6" t="n">
-        <v>0.8125</v>
-      </c>
-      <c s="4" r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c s="1" r="E6" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c s="4" r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c s="1" r="G6" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c s="4" r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c s="1" r="I6" t="n">
-        <v>0.8125</v>
-      </c>
-      <c s="4" r="J6" t="s">
-        <v>10</v>
-      </c>
-      <c s="1" r="K6" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c s="4" r="L6" t="s">
-        <v>37</v>
-      </c>
+      <c s="1" r="A6" t="s"/>
+      <c s="4" r="B6" t="s"/>
+      <c s="1" r="C6" t="s"/>
+      <c s="4" r="D6" t="s"/>
+      <c s="1" r="E6" t="s"/>
+      <c s="4" r="F6" t="s"/>
+      <c s="1" r="G6" t="s"/>
+      <c s="4" r="H6" t="s"/>
+      <c s="1" r="I6" t="s"/>
+      <c s="4" r="J6" t="s"/>
+      <c s="1" r="K6" t="s"/>
+      <c s="4" r="L6" t="s"/>
       <c s="1" r="M6" t="s"/>
       <c s="4" r="N6" t="s"/>
     </row>
     <row r="7" spans="1:14">
-      <c s="1" r="A7" t="n">
-        <v>0.8125</v>
-      </c>
-      <c s="4" r="B7" t="s">
-        <v>10</v>
-      </c>
+      <c s="1" r="A7" t="s"/>
+      <c s="4" r="B7" t="s"/>
       <c s="12" r="C7" t="s"/>
       <c s="4" r="D7" t="s"/>
-      <c s="1" r="E7" t="n">
-        <v>0.8125</v>
-      </c>
-      <c s="4" r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c s="1" r="G7" t="n">
-        <v>0.8125</v>
-      </c>
-      <c s="4" r="H7" t="s">
-        <v>10</v>
-      </c>
+      <c s="1" r="E7" t="s"/>
+      <c s="4" r="F7" t="s"/>
+      <c s="1" r="G7" t="s"/>
+      <c s="4" r="H7" t="s"/>
       <c s="12" r="I7" t="s"/>
       <c s="4" r="J7" t="s"/>
-      <c s="1" r="K7" t="n">
-        <v>0.8125</v>
-      </c>
-      <c s="4" r="L7" t="s">
-        <v>43</v>
-      </c>
+      <c s="1" r="K7" t="s"/>
+      <c s="4" r="L7" t="s"/>
       <c s="1" r="M7" t="s"/>
       <c s="4" r="N7" t="s"/>
     </row>
@@ -907,12 +838,8 @@
       <c s="4" r="B8" t="s"/>
       <c s="12" r="C8" t="s"/>
       <c s="4" r="D8" t="s"/>
-      <c s="1" r="E8" t="n">
-        <v>0.9375</v>
-      </c>
-      <c s="4" r="F8" t="s">
-        <v>10</v>
-      </c>
+      <c s="1" r="E8" t="s"/>
+      <c s="4" r="F8" t="s"/>
       <c s="12" r="G8" t="s"/>
       <c s="4" r="H8" t="s"/>
       <c s="12" r="I8" t="s"/>
@@ -1043,18 +970,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c s="9" r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c s="3" r="B1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c s="11" r="C1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B2" t="n">
         <v>85</v>
@@ -1065,7 +992,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B3" t="n">
         <v>100</v>
@@ -1073,7 +1000,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" t="n">
         <v>12</v>
@@ -1089,7 +1016,7 @@
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1" activeCell="A1"/>
@@ -1107,33 +1034,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c s="6" r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c s="6" r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c s="6" r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c s="6" r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c s="6" r="E1" t="s">
         <v>35</v>
-      </c>
-      <c s="6" r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c s="6" r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c s="6" r="E1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c s="10" r="E2" t="n">
         <v>41455</v>
@@ -1147,10 +1074,10 @@
         <v>15</v>
       </c>
       <c s="5" r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="E3" t="n">
         <v>41435</v>
@@ -1158,16 +1085,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="E4" t="n">
         <v>41450</v>
@@ -1175,16 +1102,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c s="10" r="E5" t="n">
         <v>41429</v>
@@ -1192,16 +1119,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c s="10" r="C6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="E6" t="n">
         <v>41450</v>
@@ -1212,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="10" r="E7" t="n">
         <v>41450</v>
@@ -1226,16 +1153,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c s="10" r="E8" t="n">
         <v>41455</v>
@@ -1243,16 +1170,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c s="10" r="E9" t="n">
         <v>41456</v>
@@ -1260,16 +1187,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c s="10" r="E10" t="n">
         <v>41456</v>
@@ -1277,16 +1204,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c s="10" r="E11" t="n">
         <v>41456</v>
@@ -1294,19 +1221,36 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c s="8" r="E12" t="n">
-        <v>41464.0</v>
+        <v>42</v>
+      </c>
+      <c s="10" r="E12" t="n">
+        <v>41464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c s="8" r="E13" t="n">
+        <v>41476.0</v>
       </c>
     </row>
   </sheetData>

--- a/jim_info.xlsx
+++ b/jim_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>Burns</t>
   </si>
@@ -43,130 +43,160 @@
     <t>Rasor</t>
   </si>
   <si>
+    <t>Johnson Jr</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Dandy</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>TRX 3-2-1</t>
+  </si>
+  <si>
+    <t>Mahurin</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Sanders</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Cave Basics</t>
+  </si>
+  <si>
+    <t>Beth</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>3-2-1</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Kettlebells</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate </t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Monthy</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Date Joined</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Rasor III</t>
+  </si>
+  <si>
+    <t>Risor</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Weaver</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Drop In</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Rasor Jr</t>
+  </si>
+  <si>
+    <t>Idea</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Hamvas</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Another</t>
+  </si>
+  <si>
+    <t>Punch Card</t>
+  </si>
+  <si>
     <t>NMI</t>
-  </si>
-  <si>
-    <t>Jonathan</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Sanders</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>TRX 3-2-1</t>
-  </si>
-  <si>
-    <t>Mahurin</t>
-  </si>
-  <si>
-    <t>Howard</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
-    <t>Dave</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Cave Basics</t>
-  </si>
-  <si>
-    <t>Beth</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Fri</t>
-  </si>
-  <si>
-    <t>3-2-1</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate </t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Monthy</t>
-  </si>
-  <si>
-    <t>Due</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Hamvas</t>
-  </si>
-  <si>
-    <t>date joined</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Weaver</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Rasor III</t>
-  </si>
-  <si>
-    <t>Drop In</t>
-  </si>
-  <si>
-    <t>Tue</t>
-  </si>
-  <si>
-    <t>Tyler</t>
-  </si>
-  <si>
-    <t>Middle</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Kettlebells</t>
-  </si>
-  <si>
-    <t>Punch Card</t>
-  </si>
-  <si>
-    <t>Rasor Jr</t>
   </si>
   <si>
     <t>Sat</t>
@@ -304,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="20" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -315,7 +345,6 @@
     <xf applyBorder="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="8" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
@@ -625,64 +654,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col bestFit="true" min="1" max="1" collapsed="0" width="5.5703125" customWidth="true"/>
-    <col bestFit="true" min="3" max="3" collapsed="0" width="5.5703125" customWidth="true"/>
-    <col bestFit="true" min="2" max="2" collapsed="0" width="10.7109375" customWidth="true"/>
-    <col bestFit="true" min="5" max="5" collapsed="0" width="5.5703125" customWidth="true"/>
-    <col bestFit="true" min="4" max="4" collapsed="0" width="10.7109375" customWidth="true"/>
-    <col bestFit="true" min="7" max="7" collapsed="0" width="5.85546875" customWidth="true"/>
-    <col max="6" collapsed="5" customWidth="true" width="9.140625" min="6"/>
-    <col bestFit="true" min="9" max="9" collapsed="0" width="5.5703125" customWidth="true"/>
+    <col max="1" collapsed="0" customWidth="true" width="5.5703125" min="1"/>
+    <col max="3" collapsed="0" customWidth="true" width="5.5703125" min="3"/>
+    <col max="2" collapsed="0" customWidth="true" width="10.7109375" min="2"/>
+    <col max="5" collapsed="0" customWidth="true" width="5.5703125" min="5"/>
+    <col max="4" collapsed="0" customWidth="true" width="10.7109375" min="4"/>
+    <col max="7" collapsed="0" customWidth="true" width="5.85546875" min="7"/>
+    <col max="6" collapsed="0" customWidth="true" width="9.140625" min="6"/>
+    <col max="9" collapsed="0" customWidth="true" width="5.5703125" min="9"/>
     <col max="8" collapsed="0" customWidth="true" width="9.140625" min="8"/>
-    <col bestFit="true" min="11" max="11" collapsed="0" width="5.5703125" customWidth="true"/>
-    <col bestFit="true" min="10" max="10" collapsed="0" width="10.7109375" customWidth="true"/>
-    <col bestFit="true" min="13" max="13" collapsed="0" width="4.28515625" customWidth="true"/>
-    <col bestFit="true" min="12" max="12" collapsed="0" width="11.0" customWidth="true"/>
-    <col bestFit="true" min="14" max="14" collapsed="0" width="5.0" customWidth="true"/>
+    <col max="11" collapsed="0" customWidth="true" width="5.5703125" min="11"/>
+    <col max="10" collapsed="0" customWidth="true" width="10.7109375" min="10"/>
+    <col max="13" collapsed="0" customWidth="true" width="4.28515625" min="13"/>
+    <col max="12" collapsed="0" customWidth="true" width="11.0" min="12"/>
+    <col max="14" collapsed="0" customWidth="true" width="5.0" min="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c s="9" r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c s="11" r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c s="10" r="B1" t="s">
+        <v>25</v>
       </c>
       <c s="9" r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c s="11" r="D1" t="s">
-        <v>21</v>
+        <v>53</v>
+      </c>
+      <c s="10" r="D1" t="s">
+        <v>25</v>
       </c>
       <c s="9" r="E1" t="s">
         <v>1</v>
       </c>
-      <c s="11" r="F1" t="s">
-        <v>21</v>
+      <c s="10" r="F1" t="s">
+        <v>25</v>
       </c>
       <c s="9" r="G1" t="s">
         <v>6</v>
       </c>
-      <c s="11" r="H1" t="s">
-        <v>21</v>
+      <c s="10" r="H1" t="s">
+        <v>25</v>
       </c>
       <c s="9" r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c s="11" r="J1" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c s="10" r="J1" t="s">
+        <v>25</v>
       </c>
       <c s="9" r="K1" t="s">
-        <v>50</v>
-      </c>
-      <c s="11" r="L1" t="s">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c s="10" r="L1" t="s">
+        <v>25</v>
       </c>
       <c s="9" r="M1" t="s">
         <v>3</v>
       </c>
-      <c s="11" r="N1" t="s">
-        <v>21</v>
+      <c s="10" r="N1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -696,7 +725,7 @@
         <v>0.375</v>
       </c>
       <c s="4" r="D2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c s="1" r="E2" t="n">
         <v>0.4166666666666667</v>
@@ -714,7 +743,7 @@
         <v>0.375</v>
       </c>
       <c s="4" r="J2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c s="1" r="K2" t="n">
         <v>0.4166666666666667</v>
@@ -730,7 +759,7 @@
         <v>0.7291666666666666</v>
       </c>
       <c s="4" r="B3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c s="1" r="C3" t="n">
         <v>0.7291666666666666</v>
@@ -742,7 +771,7 @@
         <v>0.7708333333333334</v>
       </c>
       <c s="4" r="F3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c s="1" r="G3" t="n">
         <v>0.7708333333333334</v>
@@ -754,13 +783,13 @@
         <v>0.4166666666666667</v>
       </c>
       <c s="4" r="J3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c s="1" r="K3" t="n">
         <v>0.4583333333333333</v>
       </c>
       <c s="4" r="L3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c s="1" r="M3" t="s"/>
       <c s="4" r="N3" t="s"/>
@@ -820,13 +849,13 @@
     <row r="7" spans="1:14">
       <c s="1" r="A7" t="s"/>
       <c s="4" r="B7" t="s"/>
-      <c s="12" r="C7" t="s"/>
+      <c s="11" r="C7" t="s"/>
       <c s="4" r="D7" t="s"/>
       <c s="1" r="E7" t="s"/>
       <c s="4" r="F7" t="s"/>
       <c s="1" r="G7" t="s"/>
       <c s="4" r="H7" t="s"/>
-      <c s="12" r="I7" t="s"/>
+      <c s="11" r="I7" t="s"/>
       <c s="4" r="J7" t="s"/>
       <c s="1" r="K7" t="s"/>
       <c s="4" r="L7" t="s"/>
@@ -834,99 +863,99 @@
       <c s="4" r="N7" t="s"/>
     </row>
     <row r="8" spans="1:14">
-      <c s="12" r="A8" t="s"/>
+      <c s="11" r="A8" t="s"/>
       <c s="4" r="B8" t="s"/>
-      <c s="12" r="C8" t="s"/>
+      <c s="11" r="C8" t="s"/>
       <c s="4" r="D8" t="s"/>
       <c s="1" r="E8" t="s"/>
       <c s="4" r="F8" t="s"/>
-      <c s="12" r="G8" t="s"/>
+      <c s="11" r="G8" t="s"/>
       <c s="4" r="H8" t="s"/>
-      <c s="12" r="I8" t="s"/>
+      <c s="11" r="I8" t="s"/>
       <c s="4" r="J8" t="s"/>
-      <c s="12" r="K8" t="s"/>
+      <c s="11" r="K8" t="s"/>
       <c s="4" r="L8" t="s"/>
-      <c s="12" r="M8" t="s"/>
+      <c s="11" r="M8" t="s"/>
       <c s="4" r="N8" t="s"/>
     </row>
     <row r="9" spans="1:14">
-      <c s="12" r="A9" t="s"/>
+      <c s="11" r="A9" t="s"/>
       <c s="4" r="B9" t="s"/>
-      <c s="12" r="C9" t="s"/>
+      <c s="11" r="C9" t="s"/>
       <c s="4" r="D9" t="s"/>
-      <c s="12" r="E9" t="s"/>
+      <c s="11" r="E9" t="s"/>
       <c s="4" r="F9" t="s"/>
-      <c s="12" r="G9" t="s"/>
+      <c s="11" r="G9" t="s"/>
       <c s="4" r="H9" t="s"/>
-      <c s="12" r="I9" t="s"/>
+      <c s="11" r="I9" t="s"/>
       <c s="4" r="J9" t="s"/>
-      <c s="12" r="K9" t="s"/>
+      <c s="11" r="K9" t="s"/>
       <c s="4" r="L9" t="s"/>
-      <c s="12" r="M9" t="s"/>
+      <c s="11" r="M9" t="s"/>
       <c s="4" r="N9" t="s"/>
     </row>
     <row r="10" spans="1:14">
-      <c s="12" r="A10" t="s"/>
+      <c s="11" r="A10" t="s"/>
       <c s="4" r="B10" t="s"/>
-      <c s="12" r="C10" t="s"/>
+      <c s="11" r="C10" t="s"/>
       <c s="4" r="D10" t="s"/>
-      <c s="12" r="E10" t="s"/>
+      <c s="11" r="E10" t="s"/>
       <c s="4" r="F10" t="s"/>
-      <c s="12" r="G10" t="s"/>
+      <c s="11" r="G10" t="s"/>
       <c s="4" r="H10" t="s"/>
-      <c s="12" r="I10" t="s"/>
+      <c s="11" r="I10" t="s"/>
       <c s="4" r="J10" t="s"/>
-      <c s="12" r="K10" t="s"/>
+      <c s="11" r="K10" t="s"/>
       <c s="4" r="L10" t="s"/>
-      <c s="12" r="M10" t="s"/>
+      <c s="11" r="M10" t="s"/>
       <c s="4" r="N10" t="s"/>
     </row>
     <row r="11" spans="1:14">
-      <c s="12" r="A11" t="s"/>
+      <c s="11" r="A11" t="s"/>
       <c s="4" r="B11" t="s"/>
-      <c s="12" r="C11" t="s"/>
+      <c s="11" r="C11" t="s"/>
       <c s="4" r="D11" t="s"/>
-      <c s="12" r="E11" t="s"/>
+      <c s="11" r="E11" t="s"/>
       <c s="4" r="F11" t="s"/>
-      <c s="12" r="G11" t="s"/>
+      <c s="11" r="G11" t="s"/>
       <c s="4" r="H11" t="s"/>
-      <c s="12" r="I11" t="s"/>
+      <c s="11" r="I11" t="s"/>
       <c s="4" r="J11" t="s"/>
-      <c s="12" r="K11" t="s"/>
+      <c s="11" r="K11" t="s"/>
       <c s="4" r="L11" t="s"/>
-      <c s="12" r="M11" t="s"/>
+      <c s="11" r="M11" t="s"/>
       <c s="4" r="N11" t="s"/>
     </row>
     <row r="12" spans="1:14">
-      <c s="12" r="A12" t="s"/>
+      <c s="11" r="A12" t="s"/>
       <c s="4" r="B12" t="s"/>
-      <c s="12" r="C12" t="s"/>
+      <c s="11" r="C12" t="s"/>
       <c s="4" r="D12" t="s"/>
-      <c s="12" r="E12" t="s"/>
+      <c s="11" r="E12" t="s"/>
       <c s="4" r="F12" t="s"/>
-      <c s="12" r="G12" t="s"/>
+      <c s="11" r="G12" t="s"/>
       <c s="4" r="H12" t="s"/>
-      <c s="12" r="I12" t="s"/>
+      <c s="11" r="I12" t="s"/>
       <c s="4" r="J12" t="s"/>
-      <c s="12" r="K12" t="s"/>
+      <c s="11" r="K12" t="s"/>
       <c s="4" r="L12" t="s"/>
-      <c s="12" r="M12" t="s"/>
+      <c s="11" r="M12" t="s"/>
       <c s="4" r="N12" t="s"/>
     </row>
     <row r="13" spans="1:14">
-      <c s="12" r="A13" t="s"/>
+      <c s="11" r="A13" t="s"/>
       <c s="4" r="B13" t="s"/>
-      <c s="12" r="C13" t="s"/>
+      <c s="11" r="C13" t="s"/>
       <c s="4" r="D13" t="s"/>
-      <c s="12" r="E13" t="s"/>
+      <c s="11" r="E13" t="s"/>
       <c s="4" r="F13" t="s"/>
-      <c s="12" r="G13" t="s"/>
+      <c s="11" r="G13" t="s"/>
       <c s="4" r="H13" t="s"/>
-      <c s="12" r="I13" t="s"/>
+      <c s="11" r="I13" t="s"/>
       <c s="4" r="J13" t="s"/>
-      <c s="12" r="K13" t="s"/>
+      <c s="11" r="K13" t="s"/>
       <c s="4" r="L13" t="s"/>
-      <c s="12" r="M13" t="s"/>
+      <c s="11" r="M13" t="s"/>
       <c s="4" r="N13" t="s"/>
     </row>
     <row r="14" spans="1:14">
@@ -970,18 +999,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c s="9" r="A1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c s="3" r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c s="11" r="C1" t="s">
         <v>32</v>
+      </c>
+      <c s="10" r="C1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B2" t="n">
         <v>85</v>
@@ -992,7 +1021,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B3" t="n">
         <v>100</v>
@@ -1000,7 +1029,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B4" t="n">
         <v>12</v>
@@ -1016,7 +1045,7 @@
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1" activeCell="A1"/>
@@ -1024,7 +1053,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col max="1" collapsed="0" customWidth="true" width="10.28515625" min="1"/>
+    <col max="1" collapsed="0" customWidth="true" width="10.140625" min="1"/>
     <col max="3" collapsed="0" customWidth="true" width="7.28515625" min="3"/>
     <col max="2" collapsed="0" customWidth="true" width="10.42578125" min="2"/>
     <col max="5" collapsed="0" customWidth="true" width="20.28515625" min="5"/>
@@ -1034,86 +1063,86 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c s="6" r="A1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c s="6" r="B1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c s="6" r="C1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c s="6" r="D1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c s="6" r="E1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c s="10" r="E2" t="n">
-        <v>41455</v>
+        <v>49</v>
+      </c>
+      <c s="8" r="E2" t="n">
+        <v>41496.0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c s="5" r="C3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c s="10" r="E3" t="n">
+      <c s="8" r="E3" t="n">
         <v>41435</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c s="10" r="E4" t="n">
+      <c s="8" r="E4" t="n">
         <v>41450</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
       <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c s="10" r="E5" t="n">
+        <v>58</v>
+      </c>
+      <c s="8" r="E5" t="n">
         <v>41429</v>
       </c>
     </row>
@@ -1122,15 +1151,15 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c s="10" r="C6" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c s="8" r="C6" t="s">
+        <v>45</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c s="10" r="E6" t="n">
+      <c s="8" r="E6" t="n">
         <v>41450</v>
       </c>
     </row>
@@ -1139,32 +1168,32 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c s="10" r="E7" t="n">
+      <c s="8" r="E7" t="n">
         <v>41450</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c s="10" r="E8" t="n">
+        <v>49</v>
+      </c>
+      <c s="8" r="E8" t="n">
         <v>41455</v>
       </c>
     </row>
@@ -1173,84 +1202,203 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c s="10" r="E9" t="n">
+        <v>49</v>
+      </c>
+      <c s="8" r="E9" t="n">
         <v>41456</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c s="10" r="E10" t="n">
+      <c s="8" r="E10" t="n">
         <v>41456</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c s="10" r="E11" t="n">
+        <v>49</v>
+      </c>
+      <c s="8" r="E11" t="n">
         <v>41456</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c s="10" r="E12" t="n">
+        <v>49</v>
+      </c>
+      <c s="8" r="E12" t="n">
         <v>41464</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c s="8" r="E13" t="n">
-        <v>41476.0</v>
+        <v>41476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c s="8" r="E14" t="n">
+        <v>41490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c s="8" r="E15" t="n">
+        <v>41496.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c s="8" r="E16" t="n">
+        <v>41496.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c s="8" r="E17" t="n">
+        <v>41496.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c s="8" r="E18" t="n">
+        <v>41496.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c s="8" r="E19" t="n">
+        <v>41496.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c s="8" r="E20" t="n">
+        <v>41496.0</v>
       </c>
     </row>
   </sheetData>
